--- a/Correlation data/Correlations_Fouling.xlsx
+++ b/Correlation data/Correlations_Fouling.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,6 +373,16 @@
           <t>Weight.tot.se</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weight.log</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Weight.log.se</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -386,6 +396,12 @@
       <c r="C2">
         <v>52.8879625173921</v>
       </c>
+      <c r="D2">
+        <v>2.408034768300363</v>
+      </c>
+      <c r="E2">
+        <v>0.08167090579171166</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -399,6 +415,12 @@
       <c r="C3">
         <v>31.96847070817812</v>
       </c>
+      <c r="D3">
+        <v>2.053098230777395</v>
+      </c>
+      <c r="E3">
+        <v>0.0779351602042614</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -412,6 +434,12 @@
       <c r="C4">
         <v>5.811560864031219</v>
       </c>
+      <c r="D4">
+        <v>1.712724155643193</v>
+      </c>
+      <c r="E4">
+        <v>0.05059227875027843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -425,6 +453,12 @@
       <c r="C5">
         <v>5.181889715806938</v>
       </c>
+      <c r="D5">
+        <v>1.771842138956203</v>
+      </c>
+      <c r="E5">
+        <v>0.03921753399424797</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -438,6 +472,12 @@
       <c r="C6">
         <v>5.806157133464624</v>
       </c>
+      <c r="D6">
+        <v>1.570619313549378</v>
+      </c>
+      <c r="E6">
+        <v>0.06370022162837488</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -450,6 +490,12 @@
       </c>
       <c r="C7">
         <v>6.511748375703881</v>
+      </c>
+      <c r="D7">
+        <v>1.533413965334494</v>
+      </c>
+      <c r="E7">
+        <v>0.06767080884512294</v>
       </c>
     </row>
   </sheetData>
